--- a/12.xlsx
+++ b/12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2B1E79-AFF4-413F-9E5F-837EFCFF346B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A727F5FF-B99E-4302-AD2A-0EACC56177A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6690" yWindow="2700" windowWidth="28170" windowHeight="15045" xr2:uid="{43A727E7-E0DD-4276-BE22-A0C497C034AF}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -463,10 +463,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="#,##0.0;[Red]\-#,##0.0"/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
-    <numFmt numFmtId="181" formatCode="0.0_ "/>
-    <numFmt numFmtId="184" formatCode="0.000000000"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0;[Red]\-#,##0.0"/>
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -611,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -684,16 +684,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -705,7 +702,7 @@
     <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,10 +714,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -741,13 +738,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1477,13 +1474,13 @@
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="8"/>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="O1" s="19" t="s">
         <v>20</v>
       </c>
@@ -1519,10 +1516,10 @@
       <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O3" s="18" t="s">
@@ -1542,24 +1539,24 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>4.8</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>4.7</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="25"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
       <c r="O4" s="16" t="s">
         <v>2</v>
       </c>
@@ -1568,24 +1565,24 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>5.8</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>4.2</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="25"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
       <c r="O5" s="17" t="s">
         <v>3</v>
       </c>
@@ -1597,124 +1594,124 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <v>5.4</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>4.4000000000000004</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="25"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <v>5.2</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>4.4000000000000004</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="25"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
       <c r="O7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="45"/>
+      <c r="P7" s="44"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="36">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>4.5</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="25"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>4.9000000000000004</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="25"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="O9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="44"/>
+      <c r="P9" s="43"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>4.2</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>4.2</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
       <c r="O10" s="9" t="s">
         <v>22</v>
       </c>
@@ -1724,52 +1721,52 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <v>5.7</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>4.5999999999999996</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="25"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
       <c r="O11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="P11" s="2"/>
-      <c r="Q11" s="36"/>
+      <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>5.2</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <v>4.7</v>
       </c>
       <c r="E12">
         <v>9</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="25"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
       <c r="O12" s="10" t="s">
         <v>0</v>
       </c>
@@ -1779,48 +1776,48 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="37">
         <v>5.4</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>4.0999999999999996</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="25"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>4.7</v>
       </c>
       <c r="E14">
         <v>11</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="25"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="O14" s="46" t="s">
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="O14" s="45" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1828,24 +1825,24 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>5.8</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>4.2</v>
       </c>
       <c r="E15">
         <v>12</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="25"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
       <c r="O15" t="s">
         <v>26</v>
       </c>
@@ -1854,51 +1851,51 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="36">
         <v>5.6</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>4.0999999999999996</v>
       </c>
       <c r="E16">
         <v>13</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="25"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
       <c r="O16" t="s">
         <v>43</v>
       </c>
-      <c r="R16" s="35"/>
+      <c r="R16" s="34"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="36">
         <v>4.5</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>5.0999999999999996</v>
       </c>
       <c r="E17">
         <v>14</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="25"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
       <c r="O17" t="s">
         <v>27</v>
       </c>
@@ -1907,24 +1904,24 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>5.2</v>
       </c>
       <c r="E18">
         <v>15</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="25"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
       <c r="O18" t="s">
         <v>28</v>
       </c>
@@ -1933,24 +1930,24 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="36">
         <v>5</v>
       </c>
       <c r="E19">
         <v>16</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="25"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
       <c r="O19" t="s">
         <v>29</v>
       </c>
@@ -1959,24 +1956,24 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>4.4000000000000004</v>
       </c>
       <c r="E20">
         <v>17</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="25"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
       <c r="O20" t="s">
         <v>30</v>
       </c>
@@ -1985,24 +1982,24 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="36">
         <v>5</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>4.0999999999999996</v>
       </c>
       <c r="E21">
         <v>18</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="25"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
       <c r="O21" t="s">
         <v>31</v>
       </c>
@@ -2011,24 +2008,24 @@
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <v>4.8</v>
       </c>
       <c r="E22">
         <v>19</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="25"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
       <c r="O22" t="s">
         <v>32</v>
       </c>
@@ -2037,24 +2034,24 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="38">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="38">
         <v>4.5</v>
       </c>
       <c r="E23" s="1">
         <v>20</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="25"/>
+      <c r="I23" s="24"/>
       <c r="J23" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
       <c r="O23" t="s">
         <v>33</v>
       </c>
@@ -2063,31 +2060,31 @@
       <c r="A24" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <f>AVERAGE(B4:B23)</f>
         <v>4.92</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <f>AVERAGE(C4:C23)</f>
         <v>4.5400000000000009</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="28" t="e">
+      <c r="F24" s="27" t="e">
         <f>AVERAGE(F4:F23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="28" t="e">
+      <c r="G24" s="27" t="e">
         <f>AVERAGE(G4:G23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="25"/>
+      <c r="I24" s="24"/>
       <c r="J24" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
       <c r="O24" t="s">
         <v>34</v>
       </c>
@@ -2096,25 +2093,25 @@
       <c r="A25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
       <c r="E25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="30" t="e">
+      <c r="F25" s="29" t="e">
         <f>MEDIAN(F4:F23)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G25" s="30" t="e">
+      <c r="G25" s="29" t="e">
         <f>MEDIAN(G4:G23)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I25" s="25"/>
+      <c r="I25" s="24"/>
       <c r="J25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
       <c r="O25" t="s">
         <v>35</v>
       </c>
@@ -2123,189 +2120,189 @@
       <c r="A26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <f>_xlfn.QUARTILE.EXC(B4:B23,3)-_xlfn.QUARTILE.EXC(B4:B23,1)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="28">
         <f>_xlfn.QUARTILE.EXC(C4:C23,3)-_xlfn.QUARTILE.EXC(C4:C23,1)</f>
         <v>0.57500000000000018</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="29" t="e">
+      <c r="F26" s="28" t="e">
         <f>_xlfn.QUARTILE.EXC(F4:F23,3)-_xlfn.QUARTILE.EXC(F4:F23,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G26" s="29" t="e">
+      <c r="G26" s="28" t="e">
         <f>_xlfn.QUARTILE.EXC(G4:G23,3)-_xlfn.QUARTILE.EXC(G4:G23,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I26" s="25"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
       <c r="O26" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I27" s="25"/>
+      <c r="I27" s="24"/>
       <c r="J27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
       <c r="O27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I28" s="25"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
       <c r="O28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I29" s="25"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
       <c r="O29" s="23" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I30" s="25"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
       <c r="O30" s="23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I31" s="25"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
       <c r="O31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I32" s="25"/>
+      <c r="I32" s="24"/>
       <c r="J32" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
       <c r="O32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I33" s="25"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
     </row>
     <row r="34" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I34" s="25"/>
+      <c r="I34" s="24"/>
       <c r="J34" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
     </row>
     <row r="35" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I35" s="25"/>
+      <c r="I35" s="24"/>
       <c r="J35" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
     </row>
     <row r="36" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I36" s="25"/>
+      <c r="I36" s="24"/>
       <c r="J36" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
     </row>
     <row r="37" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I37" s="25"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
     </row>
     <row r="38" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I38" s="25"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
     </row>
     <row r="39" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I39" s="25"/>
+      <c r="I39" s="24"/>
       <c r="J39" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
     </row>
     <row r="40" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I40" s="25"/>
+      <c r="I40" s="24"/>
       <c r="J40" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
     </row>
     <row r="41" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I41" s="25"/>
+      <c r="I41" s="24"/>
       <c r="J41" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
     </row>
     <row r="42" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I42" s="25"/>
+      <c r="I42" s="24"/>
       <c r="J42" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
     </row>
     <row r="43" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I43" s="27"/>
+      <c r="I43" s="26"/>
       <c r="J43" s="15" t="s">
         <v>3</v>
       </c>
       <c r="K43" s="1"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2342,13 +2339,13 @@
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="8"/>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="O1" s="19" t="s">
         <v>20</v>
       </c>
@@ -2384,10 +2381,10 @@
       <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O3" s="18" t="s">
@@ -2407,25 +2404,25 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="36">
         <v>4.8</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>4.7</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="40" cm="1">
+      <c r="F4" s="39" cm="1">
         <f t="array" ref="F4:F23">B4:B23-B25</f>
         <v>-4.9999999999999822E-2</v>
       </c>
-      <c r="G4" s="40" cm="1">
+      <c r="G4" s="39" cm="1">
         <f t="array" ref="G4:G23">C4:C23-C25</f>
         <v>0.20000000000000018</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="25" cm="1">
+      <c r="I4" s="24" cm="1">
         <f t="array" ref="I4:I43">_xlfn.VSTACK(F4:F23,G4:G23)</f>
         <v>-4.9999999999999822E-2</v>
       </c>
@@ -2436,11 +2433,11 @@
         <f t="array" ref="K4:K43">_xlfn.RANK.AVG(I4:I43,I4:I43,1)</f>
         <v>19</v>
       </c>
-      <c r="L4" s="31" cm="1">
+      <c r="L4" s="30" cm="1">
         <f t="array" ref="L4:L43">_xlfn.RANK.AVG(I4:I43,I4:I43,0)</f>
         <v>22</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="30">
         <f>MIN(K4,L4)</f>
         <v>19</v>
       </c>
@@ -2464,23 +2461,23 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>5.8</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>4.2</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <v>0.95000000000000018</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="39">
         <v>-0.29999999999999982</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>0.95000000000000018</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -2489,10 +2486,10 @@
       <c r="K5">
         <v>39.5</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="30">
         <v>1.5</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="30">
         <f t="shared" ref="M5:M43" si="0">MIN(K5,L5)</f>
         <v>1.5</v>
       </c>
@@ -2511,23 +2508,23 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <v>5.4</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>4.4000000000000004</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="39">
         <v>0.55000000000000071</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="39">
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <v>0.55000000000000071</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -2536,10 +2533,10 @@
       <c r="K6">
         <v>33.5</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="30">
         <v>7.5</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="30">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
@@ -2548,23 +2545,23 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <v>5.2</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>4.4000000000000004</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="39">
         <v>0.35000000000000053</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="39">
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <v>0.35000000000000053</v>
       </c>
       <c r="J7" s="14" t="s">
@@ -2573,17 +2570,17 @@
       <c r="K7">
         <v>29.5</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="30">
         <v>11.5</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="30">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="O7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="45" cm="1">
+      <c r="P7" s="44" cm="1">
         <f t="array" ref="P7">SUM(M4:M43^2)</f>
         <v>5765.5</v>
       </c>
@@ -2592,23 +2589,23 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="36">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>4.5</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="39">
         <v>-0.44999999999999929</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="39">
         <v>0</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <v>-0.44999999999999929</v>
       </c>
       <c r="J8" s="14" t="s">
@@ -2617,10 +2614,10 @@
       <c r="K8">
         <v>4.5</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="30">
         <v>36.5</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="30">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -2629,23 +2626,23 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>4.9000000000000004</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="39">
         <v>-0.44999999999999929</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="39">
         <v>0.40000000000000036</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <v>-0.44999999999999929</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -2654,17 +2651,17 @@
       <c r="K9">
         <v>4.5</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="30">
         <v>36.5</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="30">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="O9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="43">
         <f>Q4*(R4+2)/4</f>
         <v>210</v>
       </c>
@@ -2673,23 +2670,23 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>4.2</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>4.2</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="39">
         <v>-0.64999999999999947</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="39">
         <v>-0.29999999999999982</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="25">
+      <c r="I10" s="24">
         <v>-0.64999999999999947</v>
       </c>
       <c r="J10" s="14" t="s">
@@ -2698,10 +2695,10 @@
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="30">
         <v>39</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2717,23 +2714,23 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <v>5.7</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>4.5999999999999996</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="39">
         <v>0.85000000000000053</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="39">
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="25">
+      <c r="I11" s="24">
         <v>0.85000000000000053</v>
       </c>
       <c r="J11" s="14" t="s">
@@ -2742,10 +2739,10 @@
       <c r="K11">
         <v>38</v>
       </c>
-      <c r="L11" s="31">
-        <v>3</v>
-      </c>
-      <c r="M11" s="31">
+      <c r="L11" s="30">
+        <v>3</v>
+      </c>
+      <c r="M11" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2756,29 +2753,29 @@
         <f>(ABS(P4-P9))/SQRT(P10)</f>
         <v>2.5210438546958853</v>
       </c>
-      <c r="Q11" s="36"/>
+      <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>5.2</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <v>4.7</v>
       </c>
       <c r="E12">
         <v>9</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="39">
         <v>0.35000000000000053</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="40">
         <v>0.20000000000000018</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="25">
+      <c r="I12" s="24">
         <v>0.35000000000000053</v>
       </c>
       <c r="J12" s="14" t="s">
@@ -2787,10 +2784,10 @@
       <c r="K12">
         <v>29.5</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="30">
         <v>11.5</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="30">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
@@ -2806,23 +2803,23 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="37">
         <v>5.4</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>4.0999999999999996</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="40">
         <v>0.55000000000000071</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="39">
         <v>-0.40000000000000036</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="25">
+      <c r="I13" s="24">
         <v>0.55000000000000071</v>
       </c>
       <c r="J13" s="14" t="s">
@@ -2831,10 +2828,10 @@
       <c r="K13">
         <v>33.5</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="30">
         <v>7.5</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="30">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
@@ -2843,23 +2840,23 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>4.7</v>
       </c>
       <c r="E14">
         <v>11</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="39">
         <v>-0.75</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="39">
         <v>0.20000000000000018</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="25">
+      <c r="I14" s="24">
         <v>-0.75</v>
       </c>
       <c r="J14" s="14" t="s">
@@ -2868,14 +2865,14 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="30">
         <v>40</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O14" s="46" t="s">
+      <c r="O14" s="45" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2883,23 +2880,23 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>5.8</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>4.2</v>
       </c>
       <c r="E15">
         <v>12</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="39">
         <v>0.95000000000000018</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="39">
         <v>-0.29999999999999982</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="25">
+      <c r="I15" s="24">
         <v>0.95000000000000018</v>
       </c>
       <c r="J15" s="14" t="s">
@@ -2908,10 +2905,10 @@
       <c r="K15">
         <v>39.5</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="30">
         <v>1.5</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="30">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -2923,23 +2920,23 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="36">
         <v>5.6</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>4.0999999999999996</v>
       </c>
       <c r="E16">
         <v>13</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="39">
         <v>0.75</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="39">
         <v>-0.40000000000000036</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="25">
+      <c r="I16" s="24">
         <v>0.75</v>
       </c>
       <c r="J16" s="14" t="s">
@@ -2948,39 +2945,39 @@
       <c r="K16">
         <v>37</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="30">
         <v>4</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O16" t="s">
         <v>43</v>
       </c>
-      <c r="R16" s="35"/>
+      <c r="R16" s="34"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="36">
         <v>4.5</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>5.0999999999999996</v>
       </c>
       <c r="E17">
         <v>14</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="39">
         <v>-0.34999999999999964</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="39">
         <v>0.59999999999999964</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="25">
+      <c r="I17" s="24">
         <v>-0.34999999999999964</v>
       </c>
       <c r="J17" s="14" t="s">
@@ -2989,10 +2986,10 @@
       <c r="K17">
         <v>10</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="30">
         <v>31</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -3004,23 +3001,23 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>5.2</v>
       </c>
       <c r="E18">
         <v>15</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="39">
         <v>-0.44999999999999929</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="39">
         <v>0.70000000000000018</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="25">
+      <c r="I18" s="24">
         <v>-0.44999999999999929</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -3029,10 +3026,10 @@
       <c r="K18">
         <v>4.5</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="30">
         <v>36.5</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M18" s="30">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -3044,23 +3041,23 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="36">
         <v>5</v>
       </c>
       <c r="E19">
         <v>16</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="39">
         <v>-0.44999999999999929</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="39">
         <v>0.5</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="25">
+      <c r="I19" s="24">
         <v>-0.44999999999999929</v>
       </c>
       <c r="J19" s="14" t="s">
@@ -3069,10 +3066,10 @@
       <c r="K19">
         <v>4.5</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="30">
         <v>36.5</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M19" s="30">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -3084,23 +3081,23 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>4.4000000000000004</v>
       </c>
       <c r="E20">
         <v>17</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="39">
         <v>-0.25</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="39">
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="25">
+      <c r="I20" s="24">
         <v>-0.25</v>
       </c>
       <c r="J20" s="14" t="s">
@@ -3109,10 +3106,10 @@
       <c r="K20">
         <v>14.5</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="30">
         <v>26.5</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="30">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
@@ -3124,23 +3121,23 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="36">
         <v>5</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>4.0999999999999996</v>
       </c>
       <c r="E21">
         <v>18</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="39">
         <v>0.15000000000000036</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="39">
         <v>-0.40000000000000036</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="I21" s="25">
+      <c r="I21" s="24">
         <v>0.15000000000000036</v>
       </c>
       <c r="J21" s="14" t="s">
@@ -3149,10 +3146,10 @@
       <c r="K21">
         <v>24</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="30">
         <v>17</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -3164,23 +3161,23 @@
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <v>4.8</v>
       </c>
       <c r="E22">
         <v>19</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="39">
         <v>5.0000000000000711E-2</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="39">
         <v>0.29999999999999982</v>
       </c>
       <c r="H22" s="11"/>
-      <c r="I22" s="25">
+      <c r="I22" s="24">
         <v>5.0000000000000711E-2</v>
       </c>
       <c r="J22" s="14" t="s">
@@ -3189,10 +3186,10 @@
       <c r="K22">
         <v>22</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="30">
         <v>19</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="30">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -3204,23 +3201,23 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="38">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="38">
         <v>4.5</v>
       </c>
       <c r="E23" s="1">
         <v>20</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="41">
         <v>-0.25</v>
       </c>
-      <c r="G23" s="42">
+      <c r="G23" s="41">
         <v>0</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="25">
+      <c r="I23" s="24">
         <v>-0.25</v>
       </c>
       <c r="J23" s="14" t="s">
@@ -3229,10 +3226,10 @@
       <c r="K23">
         <v>14.5</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="30">
         <v>26.5</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="30">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
@@ -3244,26 +3241,26 @@
       <c r="A24" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <f>AVERAGE(B4:B23)</f>
         <v>4.92</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <f>AVERAGE(C4:C23)</f>
         <v>4.5400000000000009</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <f>AVERAGE(F4:F23)</f>
         <v>7.0000000000000423E-2</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <f>AVERAGE(G4:G23)</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="24">
         <v>0.20000000000000018</v>
       </c>
       <c r="J24" s="14" t="s">
@@ -3272,10 +3269,10 @@
       <c r="K24">
         <v>26</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="30">
         <v>15</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3287,26 +3284,26 @@
       <c r="A25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="29">
         <f>MEDIAN(B4:B23)</f>
         <v>4.8499999999999996</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="29">
         <f>MEDIAN(C4:C23)</f>
         <v>4.5</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="29">
         <f>MEDIAN(F4:F23)</f>
         <v>4.4408920985006262E-16</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="29">
         <f>MEDIAN(G4:G23)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="24">
         <v>-0.29999999999999982</v>
       </c>
       <c r="J25" s="14" t="s">
@@ -3315,10 +3312,10 @@
       <c r="K25">
         <v>12</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="30">
         <v>29</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M25" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -3330,26 +3327,26 @@
       <c r="A26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <f>_xlfn.QUARTILE.EXC(B4:B23,3)-_xlfn.QUARTILE.EXC(B4:B23,1)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="28">
         <f>_xlfn.QUARTILE.EXC(C4:C23,3)-_xlfn.QUARTILE.EXC(C4:C23,1)</f>
         <v>0.57500000000000018</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="28">
         <f>_xlfn.QUARTILE.EXC(F4:F23,3)-_xlfn.QUARTILE.EXC(F4:F23,1)</f>
         <v>1</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="28">
         <f>_xlfn.QUARTILE.EXC(G4:G23,3)-_xlfn.QUARTILE.EXC(G4:G23,1)</f>
         <v>0.57499999999999973</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="24">
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="J26" s="14" t="s">
@@ -3358,10 +3355,10 @@
       <c r="K26">
         <v>17</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="30">
         <v>24</v>
       </c>
-      <c r="M26" s="31">
+      <c r="M26" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -3370,7 +3367,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I27" s="25">
+      <c r="I27" s="24">
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="J27" s="14" t="s">
@@ -3379,10 +3376,10 @@
       <c r="K27">
         <v>17</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="30">
         <v>24</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M27" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -3391,7 +3388,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I28" s="25">
+      <c r="I28" s="24">
         <v>0</v>
       </c>
       <c r="J28" s="14" t="s">
@@ -3400,10 +3397,10 @@
       <c r="K28">
         <v>20.5</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="30">
         <v>20.5</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M28" s="30">
         <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
@@ -3412,7 +3409,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I29" s="25">
+      <c r="I29" s="24">
         <v>0.40000000000000036</v>
       </c>
       <c r="J29" s="14" t="s">
@@ -3421,10 +3418,10 @@
       <c r="K29">
         <v>31</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="30">
         <v>10</v>
       </c>
-      <c r="M29" s="31">
+      <c r="M29" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -3433,7 +3430,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I30" s="25">
+      <c r="I30" s="24">
         <v>-0.29999999999999982</v>
       </c>
       <c r="J30" s="14" t="s">
@@ -3442,10 +3439,10 @@
       <c r="K30">
         <v>12</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L30" s="30">
         <v>29</v>
       </c>
-      <c r="M30" s="31">
+      <c r="M30" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -3454,7 +3451,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I31" s="25">
+      <c r="I31" s="24">
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="J31" s="14" t="s">
@@ -3463,10 +3460,10 @@
       <c r="K31">
         <v>23</v>
       </c>
-      <c r="L31" s="31">
+      <c r="L31" s="30">
         <v>18</v>
       </c>
-      <c r="M31" s="31">
+      <c r="M31" s="30">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -3475,7 +3472,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I32" s="25">
+      <c r="I32" s="24">
         <v>0.20000000000000018</v>
       </c>
       <c r="J32" s="14" t="s">
@@ -3484,10 +3481,10 @@
       <c r="K32">
         <v>26</v>
       </c>
-      <c r="L32" s="31">
+      <c r="L32" s="30">
         <v>15</v>
       </c>
-      <c r="M32" s="31">
+      <c r="M32" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3496,7 +3493,7 @@
       </c>
     </row>
     <row r="33" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I33" s="25">
+      <c r="I33" s="24">
         <v>-0.40000000000000036</v>
       </c>
       <c r="J33" s="14" t="s">
@@ -3505,16 +3502,16 @@
       <c r="K33">
         <v>8</v>
       </c>
-      <c r="L33" s="31">
+      <c r="L33" s="30">
         <v>33</v>
       </c>
-      <c r="M33" s="31">
+      <c r="M33" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I34" s="25">
+      <c r="I34" s="24">
         <v>0.20000000000000018</v>
       </c>
       <c r="J34" s="14" t="s">
@@ -3523,16 +3520,16 @@
       <c r="K34">
         <v>26</v>
       </c>
-      <c r="L34" s="31">
+      <c r="L34" s="30">
         <v>15</v>
       </c>
-      <c r="M34" s="31">
+      <c r="M34" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I35" s="25">
+      <c r="I35" s="24">
         <v>-0.29999999999999982</v>
       </c>
       <c r="J35" s="14" t="s">
@@ -3541,16 +3538,16 @@
       <c r="K35">
         <v>12</v>
       </c>
-      <c r="L35" s="31">
+      <c r="L35" s="30">
         <v>29</v>
       </c>
-      <c r="M35" s="31">
+      <c r="M35" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I36" s="25">
+      <c r="I36" s="24">
         <v>-0.40000000000000036</v>
       </c>
       <c r="J36" s="14" t="s">
@@ -3559,16 +3556,16 @@
       <c r="K36">
         <v>8</v>
       </c>
-      <c r="L36" s="31">
+      <c r="L36" s="30">
         <v>33</v>
       </c>
-      <c r="M36" s="31">
+      <c r="M36" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I37" s="25">
+      <c r="I37" s="24">
         <v>0.59999999999999964</v>
       </c>
       <c r="J37" s="14" t="s">
@@ -3577,16 +3574,16 @@
       <c r="K37">
         <v>35</v>
       </c>
-      <c r="L37" s="31">
+      <c r="L37" s="30">
         <v>6</v>
       </c>
-      <c r="M37" s="31">
+      <c r="M37" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I38" s="25">
+      <c r="I38" s="24">
         <v>0.70000000000000018</v>
       </c>
       <c r="J38" s="14" t="s">
@@ -3595,16 +3592,16 @@
       <c r="K38">
         <v>36</v>
       </c>
-      <c r="L38" s="31">
+      <c r="L38" s="30">
         <v>5</v>
       </c>
-      <c r="M38" s="31">
+      <c r="M38" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I39" s="25">
+      <c r="I39" s="24">
         <v>0.5</v>
       </c>
       <c r="J39" s="14" t="s">
@@ -3613,16 +3610,16 @@
       <c r="K39">
         <v>32</v>
       </c>
-      <c r="L39" s="31">
+      <c r="L39" s="30">
         <v>9</v>
       </c>
-      <c r="M39" s="31">
+      <c r="M39" s="30">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I40" s="25">
+      <c r="I40" s="24">
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="J40" s="14" t="s">
@@ -3631,16 +3628,16 @@
       <c r="K40">
         <v>17</v>
       </c>
-      <c r="L40" s="31">
+      <c r="L40" s="30">
         <v>24</v>
       </c>
-      <c r="M40" s="31">
+      <c r="M40" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I41" s="25">
+      <c r="I41" s="24">
         <v>-0.40000000000000036</v>
       </c>
       <c r="J41" s="14" t="s">
@@ -3649,16 +3646,16 @@
       <c r="K41">
         <v>8</v>
       </c>
-      <c r="L41" s="31">
+      <c r="L41" s="30">
         <v>33</v>
       </c>
-      <c r="M41" s="31">
+      <c r="M41" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I42" s="25">
+      <c r="I42" s="24">
         <v>0.29999999999999982</v>
       </c>
       <c r="J42" s="14" t="s">
@@ -3667,16 +3664,16 @@
       <c r="K42">
         <v>28</v>
       </c>
-      <c r="L42" s="31">
+      <c r="L42" s="30">
         <v>13</v>
       </c>
-      <c r="M42" s="31">
+      <c r="M42" s="30">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I43" s="27">
+      <c r="I43" s="26">
         <v>0</v>
       </c>
       <c r="J43" s="15" t="s">
@@ -3685,10 +3682,10 @@
       <c r="K43" s="1">
         <v>20.5</v>
       </c>
-      <c r="L43" s="43">
+      <c r="L43" s="42">
         <v>20.5</v>
       </c>
-      <c r="M43" s="43">
+      <c r="M43" s="42">
         <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
@@ -3728,13 +3725,13 @@
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="8"/>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="O1" s="19" t="s">
         <v>20</v>
       </c>
@@ -3770,10 +3767,10 @@
       <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O3" s="18" t="s">
@@ -3793,24 +3790,24 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>4.8</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>4.7</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="25"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
       <c r="O4" s="16" t="s">
         <v>2</v>
       </c>
@@ -3819,24 +3816,24 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>5.8</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>4.2</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="25"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
       <c r="O5" s="17" t="s">
         <v>3</v>
       </c>
@@ -3848,124 +3845,124 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>5.4</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>4.4000000000000004</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="25"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>5.2</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>4.4000000000000004</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="25"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
       <c r="O7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="45"/>
+      <c r="P7" s="44"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>4.5</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="25"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>4.9000000000000004</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="25"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
       <c r="O9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="44"/>
+      <c r="P9" s="43"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>4.2</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>4.2</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
       <c r="O10" s="9" t="s">
         <v>22</v>
       </c>
@@ -3975,52 +3972,52 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>5.7</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>4.5999999999999996</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="25"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
       <c r="O11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="P11" s="2"/>
-      <c r="Q11" s="36"/>
+      <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>5.2</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>4.7</v>
       </c>
       <c r="E12">
         <v>9</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="25"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
       <c r="O12" s="10" t="s">
         <v>0</v>
       </c>
@@ -4030,48 +4027,48 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>5.4</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>4.0999999999999996</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="25"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>4.7</v>
       </c>
       <c r="E14">
         <v>11</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="25"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="O14" s="46" t="s">
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="O14" s="45" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4079,24 +4076,24 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <v>5.8</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>4.2</v>
       </c>
       <c r="E15">
         <v>12</v>
       </c>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="25"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
       <c r="O15" t="s">
         <v>26</v>
       </c>
@@ -4105,51 +4102,51 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>5.6</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>4.0999999999999996</v>
       </c>
       <c r="E16">
         <v>13</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="25"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
       <c r="O16" t="s">
         <v>44</v>
       </c>
-      <c r="R16" s="35"/>
+      <c r="R16" s="34"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <v>4.5</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>5.0999999999999996</v>
       </c>
       <c r="E17">
         <v>14</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="25"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
       <c r="O17" t="s">
         <v>27</v>
       </c>
@@ -4158,24 +4155,24 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>5.2</v>
       </c>
       <c r="E18">
         <v>15</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="25"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
       <c r="O18" t="s">
         <v>45</v>
       </c>
@@ -4184,24 +4181,24 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>5</v>
       </c>
       <c r="E19">
         <v>16</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="25"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
       <c r="O19" t="s">
         <v>46</v>
       </c>
@@ -4210,24 +4207,24 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>4.4000000000000004</v>
       </c>
       <c r="E20">
         <v>17</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="11"/>
-      <c r="I20" s="25"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
       <c r="O20" t="s">
         <v>30</v>
       </c>
@@ -4236,24 +4233,24 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <v>5</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>4.0999999999999996</v>
       </c>
       <c r="E21">
         <v>18</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="11"/>
-      <c r="I21" s="25"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
       <c r="O21" t="s">
         <v>47</v>
       </c>
@@ -4262,24 +4259,24 @@
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <v>4.8</v>
       </c>
       <c r="E22">
         <v>19</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="11"/>
-      <c r="I22" s="25"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
       <c r="O22" t="s">
         <v>48</v>
       </c>
@@ -4288,22 +4285,22 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="26">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="26"/>
       <c r="E23" s="1">
         <v>20</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="25"/>
+      <c r="I23" s="24"/>
       <c r="J23" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
       <c r="O23" t="s">
         <v>33</v>
       </c>
@@ -4312,31 +4309,31 @@
       <c r="A24" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <f>AVERAGE(B4:B23)</f>
         <v>4.92</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <f>AVERAGE(C4:C22)</f>
         <v>4.5421052631578958</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="28" t="e">
+      <c r="F24" s="27" t="e">
         <f>AVERAGE(F4:F23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="28" t="e">
+      <c r="G24" s="27" t="e">
         <f>AVERAGE(G4:G22)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="25"/>
+      <c r="I24" s="24"/>
       <c r="J24" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
       <c r="O24" t="s">
         <v>49</v>
       </c>
@@ -4345,25 +4342,25 @@
       <c r="A25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
       <c r="E25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="30" t="e">
+      <c r="F25" s="29" t="e">
         <f>MEDIAN(F4:F23)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G25" s="30" t="e">
+      <c r="G25" s="29" t="e">
         <f>MEDIAN(G4:G22)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I25" s="25"/>
+      <c r="I25" s="24"/>
       <c r="J25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
       <c r="O25" t="s">
         <v>50</v>
       </c>
@@ -4372,185 +4369,185 @@
       <c r="A26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <f>_xlfn.QUARTILE.EXC(B4:B23,3)-_xlfn.QUARTILE.EXC(B4:B23,1)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="28">
         <f>_xlfn.QUARTILE.EXC(C4:C22,3)-_xlfn.QUARTILE.EXC(C4:C22,1)</f>
         <v>0.59999999999999964</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="29" t="e">
+      <c r="F26" s="28" t="e">
         <f>_xlfn.QUARTILE.EXC(F4:F23,3)-_xlfn.QUARTILE.EXC(F4:F23,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="G26" s="29" t="e">
+      <c r="G26" s="28" t="e">
         <f>_xlfn.QUARTILE.EXC(G4:G22,3)-_xlfn.QUARTILE.EXC(G4:G22,1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I26" s="25"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
       <c r="O26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I27" s="25"/>
+      <c r="I27" s="24"/>
       <c r="J27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
       <c r="O27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I28" s="25"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
       <c r="O28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I29" s="25"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
       <c r="O29" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I30" s="25"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
       <c r="O30" s="23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I31" s="25"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
       <c r="O31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I32" s="25"/>
+      <c r="I32" s="24"/>
       <c r="J32" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
       <c r="O32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I33" s="25"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
     </row>
     <row r="34" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I34" s="25"/>
+      <c r="I34" s="24"/>
       <c r="J34" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
     </row>
     <row r="35" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I35" s="25"/>
+      <c r="I35" s="24"/>
       <c r="J35" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
     </row>
     <row r="36" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I36" s="25"/>
+      <c r="I36" s="24"/>
       <c r="J36" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
     </row>
     <row r="37" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I37" s="25"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
     </row>
     <row r="38" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I38" s="25"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
     </row>
     <row r="39" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I39" s="25"/>
+      <c r="I39" s="24"/>
       <c r="J39" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
     </row>
     <row r="40" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I40" s="25"/>
+      <c r="I40" s="24"/>
       <c r="J40" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
     </row>
     <row r="41" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I41" s="25"/>
+      <c r="I41" s="24"/>
       <c r="J41" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
     </row>
     <row r="42" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I42" s="27"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="15" t="s">
         <v>3</v>
       </c>
       <c r="K42" s="1"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
     </row>
     <row r="43" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4587,13 +4584,13 @@
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="8"/>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
       <c r="O1" s="19" t="s">
         <v>20</v>
       </c>
@@ -4629,10 +4626,10 @@
       <c r="K3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O3" s="18" t="s">
@@ -4652,25 +4649,25 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>4.8</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>4.7</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="40" cm="1">
+      <c r="F4" s="39" cm="1">
         <f t="array" ref="F4:F23">B4:B23-B25</f>
         <v>-4.9999999999999822E-2</v>
       </c>
-      <c r="G4" s="40" cm="1">
+      <c r="G4" s="39" cm="1">
         <f t="array" ref="G4:G22">C4:C22-C25</f>
         <v>0.20000000000000018</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="25" cm="1">
+      <c r="I4" s="24" cm="1">
         <f t="array" ref="I4:I42">_xlfn.VSTACK(F4:F23,G4:G22)</f>
         <v>-4.9999999999999822E-2</v>
       </c>
@@ -4681,11 +4678,11 @@
         <f t="array" ref="K4:K42">_xlfn.RANK.AVG(I4:I42,I4:I42,1)</f>
         <v>19</v>
       </c>
-      <c r="L4" s="31" cm="1">
+      <c r="L4" s="30" cm="1">
         <f t="array" ref="L4:L42">_xlfn.RANK.AVG(I4:I42,I4:I42,0)</f>
         <v>21</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="30">
         <f>MIN(K4,L4)</f>
         <v>19</v>
       </c>
@@ -4709,23 +4706,23 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>5.8</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>4.2</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <v>0.95000000000000018</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="39">
         <v>-0.29999999999999982</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>0.95000000000000018</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -4734,10 +4731,10 @@
       <c r="K5">
         <v>38.5</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="30">
         <v>1.5</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="30">
         <f t="shared" ref="M5:M42" si="0">MIN(K5,L5)</f>
         <v>1.5</v>
       </c>
@@ -4756,23 +4753,23 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>5.4</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>4.4000000000000004</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="39">
         <v>0.55000000000000071</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="39">
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <v>0.55000000000000071</v>
       </c>
       <c r="J6" s="14" t="s">
@@ -4781,10 +4778,10 @@
       <c r="K6">
         <v>32.5</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="30">
         <v>7.5</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="30">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
@@ -4793,23 +4790,23 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>5.2</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>4.4000000000000004</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="39">
         <v>0.35000000000000053</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="39">
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <v>0.35000000000000053</v>
       </c>
       <c r="J7" s="14" t="s">
@@ -4818,17 +4815,17 @@
       <c r="K7">
         <v>28.5</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="30">
         <v>11.5</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="30">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="O7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="45" cm="1">
+      <c r="P7" s="44" cm="1">
         <f t="array" ref="P7">SUM(M4:M42^2)</f>
         <v>5325</v>
       </c>
@@ -4837,23 +4834,23 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>4.5</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="39">
         <v>-0.44999999999999929</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="39">
         <v>0</v>
       </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <v>-0.44999999999999929</v>
       </c>
       <c r="J8" s="14" t="s">
@@ -4862,10 +4859,10 @@
       <c r="K8">
         <v>4.5</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="30">
         <v>35.5</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="30">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -4874,23 +4871,23 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>4.9000000000000004</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="39">
         <v>-0.44999999999999929</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="39">
         <v>0.40000000000000036</v>
       </c>
       <c r="H9" s="11"/>
-      <c r="I9" s="25">
+      <c r="I9" s="24">
         <v>-0.44999999999999929</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -4899,17 +4896,17 @@
       <c r="K9">
         <v>4.5</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="30">
         <v>35.5</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="30">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="O9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="43">
         <f>Q4*(R4+1)^2/(4*R4)</f>
         <v>205.12820512820514</v>
       </c>
@@ -4918,23 +4915,23 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>4.2</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>4.2</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="39">
         <v>-0.64999999999999947</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="39">
         <v>-0.29999999999999982</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="25">
+      <c r="I10" s="24">
         <v>-0.64999999999999947</v>
       </c>
       <c r="J10" s="14" t="s">
@@ -4943,10 +4940,10 @@
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="30">
         <v>38</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4962,23 +4959,23 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>5.7</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>4.5999999999999996</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="39">
         <v>0.85000000000000053</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="39">
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="25">
+      <c r="I11" s="24">
         <v>0.85000000000000053</v>
       </c>
       <c r="J11" s="14" t="s">
@@ -4987,10 +4984,10 @@
       <c r="K11">
         <v>37</v>
       </c>
-      <c r="L11" s="31">
-        <v>3</v>
-      </c>
-      <c r="M11" s="31">
+      <c r="L11" s="30">
+        <v>3</v>
+      </c>
+      <c r="M11" s="30">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5001,29 +4998,29 @@
         <f>(ABS(P4-P9))/SQRT(P10)</f>
         <v>2.3795356326294703</v>
       </c>
-      <c r="Q11" s="36"/>
+      <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>5.2</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>4.7</v>
       </c>
       <c r="E12">
         <v>9</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="39">
         <v>0.35000000000000053</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="40">
         <v>0.20000000000000018</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="25">
+      <c r="I12" s="24">
         <v>0.35000000000000053</v>
       </c>
       <c r="J12" s="14" t="s">
@@ -5032,10 +5029,10 @@
       <c r="K12">
         <v>28.5</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="30">
         <v>11.5</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="30">
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
@@ -5051,23 +5048,23 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>5.4</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>4.0999999999999996</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="40">
         <v>0.55000000000000071</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="39">
         <v>-0.40000000000000036</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="25">
+      <c r="I13" s="24">
         <v>0.55000000000000071</v>
       </c>
       <c r="J13" s="14" t="s">
@@ -5076,10 +5073,10 @@
       <c r="K13">
         <v>32.5</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="30">
         <v>7.5</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="30">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
@@ -5088,23 +5085,23 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>4.7</v>
       </c>
       <c r="E14">
         <v>11</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="39">
         <v>-0.75</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="39">
         <v>0.20000000000000018</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="25">
+      <c r="I14" s="24">
         <v>-0.75</v>
       </c>
       <c r="J14" s="14" t="s">
@@ -5113,14 +5110,14 @@
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="30">
         <v>39</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="30">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O14" s="46" t="s">
+      <c r="O14" s="45" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5128,23 +5125,23 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <v>5.8</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>4.2</v>
       </c>
       <c r="E15">
         <v>12</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="39">
         <v>0.95000000000000018</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="39">
         <v>-0.29999999999999982</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="25">
+      <c r="I15" s="24">
         <v>0.95000000000000018</v>
       </c>
       <c r="J15" s="14" t="s">
@@ -5153,10 +5150,10 @@
       <c r="K15">
         <v>38.5</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="30">
         <v>1.5</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="30">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -5168,23 +5165,23 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>5.6</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>4.0999999999999996</v>
       </c>
       <c r="E16">
         <v>13</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="39">
         <v>0.75</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="39">
         <v>-0.40000000000000036</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="25">
+      <c r="I16" s="24">
         <v>0.75</v>
       </c>
       <c r="J16" s="14" t="s">
@@ -5193,39 +5190,39 @@
       <c r="K16">
         <v>36</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="30">
         <v>4</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
-      <c r="R16" s="35"/>
+      <c r="R16" s="34"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.7">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <v>4.5</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>5.0999999999999996</v>
       </c>
       <c r="E17">
         <v>14</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="39">
         <v>-0.34999999999999964</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="39">
         <v>0.59999999999999964</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="25">
+      <c r="I17" s="24">
         <v>-0.34999999999999964</v>
       </c>
       <c r="J17" s="14" t="s">
@@ -5234,10 +5231,10 @@
       <c r="K17">
         <v>10</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="30">
         <v>30</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -5249,23 +5246,23 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>5.2</v>
       </c>
       <c r="E18">
         <v>15</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="39">
         <v>-0.44999999999999929</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="39">
         <v>0.70000000000000018</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="25">
+      <c r="I18" s="24">
         <v>-0.44999999999999929</v>
       </c>
       <c r="J18" s="14" t="s">
@@ -5274,10 +5271,10 @@
       <c r="K18">
         <v>4.5</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="30">
         <v>35.5</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M18" s="30">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -5289,23 +5286,23 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>5</v>
       </c>
       <c r="E19">
         <v>16</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="39">
         <v>-0.44999999999999929</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="39">
         <v>0.5</v>
       </c>
       <c r="H19" s="11"/>
-      <c r="I19" s="25">
+      <c r="I19" s="24">
         <v>-0.44999999999999929</v>
       </c>
       <c r="J19" s="14" t="s">
@@ -5314,10 +5311,10 @@
       <c r="K19">
         <v>4.5</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="30">
         <v>35.5</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M19" s="30">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
@@ -5329,23 +5326,23 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>4.4000000000000004</v>
       </c>
       <c r="E20">
         <v>17</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="39">
         <v>-0.25</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="39">
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="25">
+      <c r="I20" s="24">
         <v>-0.25</v>
       </c>
       <c r="J20" s="14" t="s">
@@ -5354,10 +5351,10 @@
       <c r="K20">
         <v>14.5</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="30">
         <v>25.5</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="30">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
@@ -5369,23 +5366,23 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <v>5</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>4.0999999999999996</v>
       </c>
       <c r="E21">
         <v>18</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="39">
         <v>0.15000000000000036</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="39">
         <v>-0.40000000000000036</v>
       </c>
       <c r="H21" s="11"/>
-      <c r="I21" s="25">
+      <c r="I21" s="24">
         <v>0.15000000000000036</v>
       </c>
       <c r="J21" s="14" t="s">
@@ -5394,10 +5391,10 @@
       <c r="K21">
         <v>23</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="30">
         <v>17</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -5409,23 +5406,23 @@
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="24">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <v>4.8</v>
       </c>
       <c r="E22">
         <v>19</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="39">
         <v>5.0000000000000711E-2</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="39">
         <v>0.29999999999999982</v>
       </c>
       <c r="H22" s="11"/>
-      <c r="I22" s="25">
+      <c r="I22" s="24">
         <v>5.0000000000000711E-2</v>
       </c>
       <c r="J22" s="14" t="s">
@@ -5434,10 +5431,10 @@
       <c r="K22">
         <v>21</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="30">
         <v>19</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="30">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -5449,19 +5446,19 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="26">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="26"/>
       <c r="E23" s="1">
         <v>20</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="41">
         <v>-0.25</v>
       </c>
-      <c r="G23" s="42"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="25">
+      <c r="I23" s="24">
         <v>-0.25</v>
       </c>
       <c r="J23" s="14" t="s">
@@ -5470,10 +5467,10 @@
       <c r="K23">
         <v>14.5</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="30">
         <v>25.5</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="30">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
@@ -5485,26 +5482,26 @@
       <c r="A24" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <f>AVERAGE(B4:B23)</f>
         <v>4.92</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <f>AVERAGE(C4:C22)</f>
         <v>4.5421052631578958</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="27">
         <f>AVERAGE(F4:F23)</f>
         <v>7.0000000000000423E-2</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <f>AVERAGE(G4:G22)</f>
         <v>4.2105263157894778E-2</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="24">
         <v>0.20000000000000018</v>
       </c>
       <c r="J24" s="14" t="s">
@@ -5513,10 +5510,10 @@
       <c r="K24">
         <v>25</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="30">
         <v>15</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -5528,26 +5525,26 @@
       <c r="A25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="29">
         <f>MEDIAN(B4:B23)</f>
         <v>4.8499999999999996</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="29">
         <f>MEDIAN(C4:C22)</f>
         <v>4.5</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="29">
         <f>MEDIAN(F4:F23)</f>
         <v>4.4408920985006262E-16</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="29">
         <f>MEDIAN(G4:G22)</f>
         <v>0</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="24">
         <v>-0.29999999999999982</v>
       </c>
       <c r="J25" s="14" t="s">
@@ -5556,10 +5553,10 @@
       <c r="K25">
         <v>12</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="30">
         <v>28</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M25" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -5571,26 +5568,26 @@
       <c r="A26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="28">
         <f>_xlfn.QUARTILE.EXC(B4:B23,3)-_xlfn.QUARTILE.EXC(B4:B23,1)</f>
         <v>1</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="28">
         <f>_xlfn.QUARTILE.EXC(C4:C22,3)-_xlfn.QUARTILE.EXC(C4:C22,1)</f>
         <v>0.59999999999999964</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="28">
         <f>_xlfn.QUARTILE.EXC(F4:F23,3)-_xlfn.QUARTILE.EXC(F4:F23,1)</f>
         <v>1</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="28">
         <f>_xlfn.QUARTILE.EXC(G4:G22,3)-_xlfn.QUARTILE.EXC(G4:G22,1)</f>
         <v>0.59999999999999964</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="24">
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="J26" s="14" t="s">
@@ -5599,10 +5596,10 @@
       <c r="K26">
         <v>17</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="30">
         <v>23</v>
       </c>
-      <c r="M26" s="31">
+      <c r="M26" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -5611,7 +5608,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I27" s="25">
+      <c r="I27" s="24">
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="J27" s="14" t="s">
@@ -5620,10 +5617,10 @@
       <c r="K27">
         <v>17</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="30">
         <v>23</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M27" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -5632,7 +5629,7 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I28" s="25">
+      <c r="I28" s="24">
         <v>0</v>
       </c>
       <c r="J28" s="14" t="s">
@@ -5641,10 +5638,10 @@
       <c r="K28">
         <v>20</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="30">
         <v>20</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M28" s="30">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -5653,7 +5650,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I29" s="25">
+      <c r="I29" s="24">
         <v>0.40000000000000036</v>
       </c>
       <c r="J29" s="14" t="s">
@@ -5662,10 +5659,10 @@
       <c r="K29">
         <v>30</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="30">
         <v>10</v>
       </c>
-      <c r="M29" s="31">
+      <c r="M29" s="30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -5674,7 +5671,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I30" s="25">
+      <c r="I30" s="24">
         <v>-0.29999999999999982</v>
       </c>
       <c r="J30" s="14" t="s">
@@ -5683,10 +5680,10 @@
       <c r="K30">
         <v>12</v>
       </c>
-      <c r="L30" s="31">
+      <c r="L30" s="30">
         <v>28</v>
       </c>
-      <c r="M30" s="31">
+      <c r="M30" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -5695,7 +5692,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I31" s="25">
+      <c r="I31" s="24">
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="J31" s="14" t="s">
@@ -5704,10 +5701,10 @@
       <c r="K31">
         <v>22</v>
       </c>
-      <c r="L31" s="31">
+      <c r="L31" s="30">
         <v>18</v>
       </c>
-      <c r="M31" s="31">
+      <c r="M31" s="30">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -5716,7 +5713,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.7">
-      <c r="I32" s="25">
+      <c r="I32" s="24">
         <v>0.20000000000000018</v>
       </c>
       <c r="J32" s="14" t="s">
@@ -5725,10 +5722,10 @@
       <c r="K32">
         <v>25</v>
       </c>
-      <c r="L32" s="31">
+      <c r="L32" s="30">
         <v>15</v>
       </c>
-      <c r="M32" s="31">
+      <c r="M32" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -5737,7 +5734,7 @@
       </c>
     </row>
     <row r="33" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I33" s="25">
+      <c r="I33" s="24">
         <v>-0.40000000000000036</v>
       </c>
       <c r="J33" s="14" t="s">
@@ -5746,16 +5743,16 @@
       <c r="K33">
         <v>8</v>
       </c>
-      <c r="L33" s="31">
+      <c r="L33" s="30">
         <v>32</v>
       </c>
-      <c r="M33" s="31">
+      <c r="M33" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I34" s="25">
+      <c r="I34" s="24">
         <v>0.20000000000000018</v>
       </c>
       <c r="J34" s="14" t="s">
@@ -5764,16 +5761,16 @@
       <c r="K34">
         <v>25</v>
       </c>
-      <c r="L34" s="31">
+      <c r="L34" s="30">
         <v>15</v>
       </c>
-      <c r="M34" s="31">
+      <c r="M34" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I35" s="25">
+      <c r="I35" s="24">
         <v>-0.29999999999999982</v>
       </c>
       <c r="J35" s="14" t="s">
@@ -5782,16 +5779,16 @@
       <c r="K35">
         <v>12</v>
       </c>
-      <c r="L35" s="31">
+      <c r="L35" s="30">
         <v>28</v>
       </c>
-      <c r="M35" s="31">
+      <c r="M35" s="30">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I36" s="25">
+      <c r="I36" s="24">
         <v>-0.40000000000000036</v>
       </c>
       <c r="J36" s="14" t="s">
@@ -5800,16 +5797,16 @@
       <c r="K36">
         <v>8</v>
       </c>
-      <c r="L36" s="31">
+      <c r="L36" s="30">
         <v>32</v>
       </c>
-      <c r="M36" s="31">
+      <c r="M36" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I37" s="25">
+      <c r="I37" s="24">
         <v>0.59999999999999964</v>
       </c>
       <c r="J37" s="14" t="s">
@@ -5818,16 +5815,16 @@
       <c r="K37">
         <v>34</v>
       </c>
-      <c r="L37" s="31">
+      <c r="L37" s="30">
         <v>6</v>
       </c>
-      <c r="M37" s="31">
+      <c r="M37" s="30">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I38" s="25">
+      <c r="I38" s="24">
         <v>0.70000000000000018</v>
       </c>
       <c r="J38" s="14" t="s">
@@ -5836,16 +5833,16 @@
       <c r="K38">
         <v>35</v>
       </c>
-      <c r="L38" s="31">
+      <c r="L38" s="30">
         <v>5</v>
       </c>
-      <c r="M38" s="31">
+      <c r="M38" s="30">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I39" s="25">
+      <c r="I39" s="24">
         <v>0.5</v>
       </c>
       <c r="J39" s="14" t="s">
@@ -5854,16 +5851,16 @@
       <c r="K39">
         <v>31</v>
       </c>
-      <c r="L39" s="31">
+      <c r="L39" s="30">
         <v>9</v>
       </c>
-      <c r="M39" s="31">
+      <c r="M39" s="30">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I40" s="25">
+      <c r="I40" s="24">
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="J40" s="14" t="s">
@@ -5872,16 +5869,16 @@
       <c r="K40">
         <v>17</v>
       </c>
-      <c r="L40" s="31">
+      <c r="L40" s="30">
         <v>23</v>
       </c>
-      <c r="M40" s="31">
+      <c r="M40" s="30">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="41" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I41" s="25">
+      <c r="I41" s="24">
         <v>-0.40000000000000036</v>
       </c>
       <c r="J41" s="14" t="s">
@@ -5890,16 +5887,16 @@
       <c r="K41">
         <v>8</v>
       </c>
-      <c r="L41" s="31">
+      <c r="L41" s="30">
         <v>32</v>
       </c>
-      <c r="M41" s="31">
+      <c r="M41" s="30">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="I42" s="27">
+      <c r="I42" s="26">
         <v>0.29999999999999982</v>
       </c>
       <c r="J42" s="15" t="s">
@@ -5908,17 +5905,17 @@
       <c r="K42" s="1">
         <v>27</v>
       </c>
-      <c r="L42" s="43">
+      <c r="L42" s="42">
         <v>13</v>
       </c>
-      <c r="M42" s="43">
+      <c r="M42" s="42">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="9:13" x14ac:dyDescent="0.7">
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/12.xlsx
+++ b/12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\サンプル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A727F5FF-B99E-4302-AD2A-0EACC56177A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB99E748-C89A-4D99-B360-B1DA4572FCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6690" yWindow="2700" windowWidth="28170" windowHeight="15045" xr2:uid="{43A727E7-E0DD-4276-BE22-A0C497C034AF}"/>
   </bookViews>
@@ -273,28 +273,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6. J列に群を入力する。内向的をAとし、外向的をBとする（手作業）</t>
-    <rPh sb="4" eb="5">
-      <t>レツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>グン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ナイコウテキ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>ガイコウテキ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>テサギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>7. セルK4に「=RANK.AVG(I4:I43,I4:I43,1)」と入力する</t>
     <rPh sb="37" eb="39">
       <t>ニュウリョク</t>
@@ -304,13 +282,6 @@
   <si>
     <t>8. セルL4に「=RANK.AVG(I4:I43,I4:I43,0)」と入力する</t>
     <rPh sb="37" eb="39">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9. セルM4に「=MIN(K4,K4)」と入力する</t>
-    <rPh sb="22" eb="24">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -456,6 +427,41 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>9. セルM4に「=MIN(K4,L4)」と入力する</t>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6. J列に群を入力する。内向的をAとし、外向的をBとする（手作業・ここでは入力済み）</t>
+    <rPh sb="4" eb="5">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>グン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ナイコウテキ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ガイコウテキ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>テサギョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -565,7 +571,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -602,6 +608,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -611,7 +628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -749,6 +766,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1588,7 +1608,7 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="R5" s="46"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A6">
@@ -1870,7 +1890,7 @@
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="O16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R16" s="34"/>
     </row>
@@ -1975,7 +1995,7 @@
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
       <c r="O20" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.7">
@@ -2001,7 +2021,7 @@
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
       <c r="O21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.7">
@@ -2027,7 +2047,7 @@
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
       <c r="O22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.7">
@@ -2053,7 +2073,7 @@
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
       <c r="O23" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.7">
@@ -2086,7 +2106,7 @@
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
       <c r="O24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.7">
@@ -2113,7 +2133,7 @@
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
       <c r="O25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.7">
@@ -2146,7 +2166,7 @@
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
       <c r="O26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.7">
@@ -2157,7 +2177,7 @@
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
       <c r="O27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.7">
@@ -2168,7 +2188,7 @@
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.7">
@@ -2179,7 +2199,7 @@
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
       <c r="O29" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.7">
@@ -2190,7 +2210,7 @@
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
       <c r="O30" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.7">
@@ -2201,7 +2221,7 @@
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
       <c r="O31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.7">
@@ -2212,7 +2232,7 @@
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="9:13" x14ac:dyDescent="0.7">
@@ -2502,7 +2522,7 @@
       <c r="Q5" s="1">
         <v>20</v>
       </c>
-      <c r="R5" s="1"/>
+      <c r="R5" s="46"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A6">
@@ -2953,7 +2973,7 @@
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R16" s="34"/>
     </row>
@@ -3114,7 +3134,7 @@
         <v>14.5</v>
       </c>
       <c r="O20" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.7">
@@ -3154,7 +3174,7 @@
         <v>17</v>
       </c>
       <c r="O21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.7">
@@ -3194,7 +3214,7 @@
         <v>19</v>
       </c>
       <c r="O22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.7">
@@ -3234,7 +3254,7 @@
         <v>14.5</v>
       </c>
       <c r="O23" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.7">
@@ -3277,7 +3297,7 @@
         <v>15</v>
       </c>
       <c r="O24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.7">
@@ -3320,7 +3340,7 @@
         <v>12</v>
       </c>
       <c r="O25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.7">
@@ -3363,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="O26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.7">
@@ -3384,7 +3404,7 @@
         <v>17</v>
       </c>
       <c r="O27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.7">
@@ -3405,7 +3425,7 @@
         <v>20.5</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.7">
@@ -3426,7 +3446,7 @@
         <v>10</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.7">
@@ -3447,7 +3467,7 @@
         <v>12</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.7">
@@ -3468,7 +3488,7 @@
         <v>18</v>
       </c>
       <c r="O31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.7">
@@ -3489,7 +3509,7 @@
         <v>15</v>
       </c>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="9:13" x14ac:dyDescent="0.7">
@@ -3839,7 +3859,7 @@
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="R5" s="46"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A6">
@@ -4121,7 +4141,7 @@
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="O16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R16" s="34"/>
     </row>
@@ -4174,7 +4194,7 @@
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.7">
@@ -4200,7 +4220,7 @@
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
       <c r="O19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.7">
@@ -4226,7 +4246,7 @@
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
       <c r="O20" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.7">
@@ -4252,7 +4272,7 @@
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
       <c r="O21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.7">
@@ -4278,7 +4298,7 @@
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
       <c r="O22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.7">
@@ -4302,7 +4322,7 @@
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
       <c r="O23" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.7">
@@ -4335,7 +4355,7 @@
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
       <c r="O24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.7">
@@ -4362,7 +4382,7 @@
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
       <c r="O25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.7">
@@ -4395,7 +4415,7 @@
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
       <c r="O26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.7">
@@ -4406,7 +4426,7 @@
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
       <c r="O27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.7">
@@ -4417,7 +4437,7 @@
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.7">
@@ -4428,7 +4448,7 @@
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
       <c r="O29" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.7">
@@ -4439,7 +4459,7 @@
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
       <c r="O30" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.7">
@@ -4450,7 +4470,7 @@
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
       <c r="O31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.7">
@@ -4461,7 +4481,7 @@
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="9:13" x14ac:dyDescent="0.7">
@@ -4747,7 +4767,7 @@
       <c r="Q5" s="1">
         <v>19</v>
       </c>
-      <c r="R5" s="1"/>
+      <c r="R5" s="46"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.7">
       <c r="A6">
@@ -5198,7 +5218,7 @@
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R16" s="34"/>
     </row>
@@ -5279,7 +5299,7 @@
         <v>4.5</v>
       </c>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.7">
@@ -5319,7 +5339,7 @@
         <v>4.5</v>
       </c>
       <c r="O19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.7">
@@ -5359,7 +5379,7 @@
         <v>14.5</v>
       </c>
       <c r="O20" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.7">
@@ -5399,7 +5419,7 @@
         <v>17</v>
       </c>
       <c r="O21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.7">
@@ -5439,7 +5459,7 @@
         <v>19</v>
       </c>
       <c r="O22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.7">
@@ -5475,7 +5495,7 @@
         <v>14.5</v>
       </c>
       <c r="O23" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.7">
@@ -5518,7 +5538,7 @@
         <v>15</v>
       </c>
       <c r="O24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.7">
@@ -5561,7 +5581,7 @@
         <v>12</v>
       </c>
       <c r="O25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.7">
@@ -5604,7 +5624,7 @@
         <v>17</v>
       </c>
       <c r="O26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.7">
@@ -5625,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="O27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.7">
@@ -5646,7 +5666,7 @@
         <v>20</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.7">
@@ -5667,7 +5687,7 @@
         <v>10</v>
       </c>
       <c r="O29" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.7">
@@ -5688,7 +5708,7 @@
         <v>12</v>
       </c>
       <c r="O30" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.7">
@@ -5709,7 +5729,7 @@
         <v>18</v>
       </c>
       <c r="O31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.7">
@@ -5730,7 +5750,7 @@
         <v>15</v>
       </c>
       <c r="O32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="9:13" x14ac:dyDescent="0.7">
